--- a/preprocessing/3_data_analysis/topic_label_scatter.xlsx
+++ b/preprocessing/3_data_analysis/topic_label_scatter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolinapradier/GIT/latam_topics/code/7_data_analysis_1990/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolinapradier/GIT/regional_circuits_gender_inequality/preprocessing/3_data_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49192D84-BA15-BB46-8CDD-400D4EC7C178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861C5F7D-B71D-0E49-A42A-F6275E713BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-460" yWindow="-21100" windowWidth="28800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <si>
     <t>topic</t>
   </si>
@@ -446,6 +446,30 @@
   </si>
   <si>
     <t>Vaginal Prolapse</t>
+  </si>
+  <si>
+    <t>malnutrition nutrition inpatients nutricional</t>
+  </si>
+  <si>
+    <t>['malnutrition', 'nutrition', 'inpatients', 'nutricional', 'nutritional', 'malnourished', 'hospitalization', 'feeding', 'intake', 'hospitalized']</t>
+  </si>
+  <si>
+    <t>['Characteristics of patients receiving nutrition care and its associations with prognosis in a tertiary hospital Characteristics of patients receiving nutrition care and its associations with prognosis in a tertiary hospital Characteristics of patients receiving nutrition care and its associations with prognosis in a tertiary hospital OBJECTIVE: The aim of this study was to describe the medical nutritional therapy (MNT) of adult non-critically ill hospitalization patients.METHODS: In a retrospective study, adults hospitalized for more than 48 h in non-intensive care unit medical and surgical areas that were classified as being at nutritional risk were included. Malnutrition was defined according to Global Leadership Initiative on Malnutrition (GLIM) criteria.RESULTS: A total of 255 patients, aged 54.13±18.4 years, who were at risk of malnutrition were included in this study. Of these, 50% were males. Notably, 52.5% received oral nutrition supplementation (ONS), 23.5% enteral nutrition (EN), 15% parenteral nutrition (PN), and 9% received enteral and parenteral nutrition (EPN). Patients with EPN presented the highest frequency of malnutrition (52%), and therefore they received more than 100% of energy and protein requirements. The median length of stay was 25 days. Among patients with nutritional risk receiving EPN, no deaths occurred. Patients, identified at nutritional risk, but without malnutrition according to GLIM, and receiving ONS had significantly lower mortality than patients receiving other MNT.CONCLUSIONS: Oral nutrition supplementation was the more frequent MNT prescribed. The frequency of malnutrition and percentage of prescribed energy and protein were higher in patients receiving PN and EPN compared with those receiving ONS.', 'Enteral nutrition discontinuation and outcomes in general critically ill patients Enteral nutrition discontinuation and outcomes in general critically ill patients Enteral nutrition discontinuation and outcomes in general critically ill patients OBJECTIVE: To determine the relationship between enteral nutrition discontinuation and outcome in general critically ill patients.MATERIALS AND METHODS: All patients admitted to a mixed intensive care unit in a tertiary care hospital from May-August 2009 were screened for an indication for enteral nutrition. Patients were followed up until leaving the intensive care unit or a maximum of 28 days. The gastrointestinal failure score was calculated daily by adding values of 0 if the enteral nutrition received was identical to the nutrition prescribed, 1 if the enteral nutrition received was at least 75% of that prescribed, 2 if the enteral nutrition received was between 50-75% of that prescribed, 3 if the enteral nutrition received was between 50-25% of that prescribed, and 4 if the enteral nutrition received was less than 25% of that prescribed.RESULTS: The mean, worst, and categorical gastrointestinal failure scores were associated with lower survival in these patients. Age, categorical gastrointestinal failure score, type of admission, need for mechanical ventilation, sequential organ failure assessment, and Acute Physiologic and Chronic Health Evaluation II scores were selected for analysis with binary regression. In both models, the categorical gastrointestinal failure score was related to mortality.CONCLUSION: The determination of the difference between prescribed and received enteral nutrition seemed to be a useful prognostic marker and is feasible to be incorporated into a gastrointestinal failure score.', 'Impact of early enteral nutrition therapy on morbimortality reduction in a Pediatric Intensive Care Unit: A systematic review Impact of early enteral nutrition therapy on morbimortality reduction in a Pediatric Intensive Care Unit: A systematic review Impact of early enteral nutrition therapy on morbimortality reduction in a Pediatric Intensive Care Unit: A systematic review ObjectiveTo assess the impact of early introduction of enteral nutrition therapy on morbidity and mortality reduction in a pediatric intensive care unit.MethodsA search was performed in the literature of the last 10 years in English, with the target population of individuals aged 1 month to 18 years admitted to pediatric intensive care units in the PubMed, Lilacs and Embase databases using the keywords: Critical Care, Nutritional Support and Nutrition Disorders or Malnutrition.ResultsDespite advances in the quality of clinical care, the prevalence of malnutrition in hospitalized children remains unchanged in the last 20 years (15-30%) and has implications for the time of admission, course of illness and morbidity. Malnutrition is common and is often poorly recognized and therefore, untreated. Nutritional therapy is an essential part in the treatment of severely ill pediatric patients who have hypercatabolic protein state, which can be minimized with an effective nutritional treatment plan. In this study, we reviewed publications which have shown that there is still a paucity of randomized and controlled studies with good statistical treatment in relation to enteral nutritional therapy with outcomes related to morbidity and mortality. The current guidelines for nutritional therapy in these patients are largely based on expert opinion and data extrapolated from adult studies and studies in healthy children.ConclusionThe scientific evidence on the use of enteral nutrition therapy in improving the development of critically ill pediatric patients is still scarce and further studies are needed focusing on it, and better guidelines must be formulated.']</t>
+  </si>
+  <si>
+    <t>influenzae haemophilus infections vaccines</t>
+  </si>
+  <si>
+    <t>['influenzae', 'haemophilus', 'infections', 'vaccines', 'vaccine', 'vaccination', 'pneumonia', 'brazil', 'bacteremia', 'fever']</t>
+  </si>
+  <si>
+    <t>['Oropharyngeal colonization by Haemophilus influenzae in healthy children from Taubaté (São Paulo), prior to the Haemophilus influenzae type b vaccination program in Brazil Oropharyngeal colonization by Haemophilus influenzae in healthy children from Taubaté (São Paulo), prior to the Haemophilus influenzae type b vaccination program in Brazil Oropharyngeal colonization by Haemophilus influenzae in healthy children from Taubaté (São Paulo), prior to the Haemophilus influenzae type b vaccination program in Brazil Haemophilus influenzae is one of the most important bacterial agents of otitis and sinusitis. H. influenzae type b (Hib) is one of the main causes of meningitis, pneumonia, and septicemia in nonvaccinated children under 6 years of age. The aims of this study were to determine the prevalence of H. influenzae and Hib oropharyngeal colonization prior to the onset of the Hib vaccination program in Brazil in previously healthy children and to assess the susceptibility profile of this microorganism to a selected group of antimicrobials that are used to treat acute respiratory infections.METHOD: Cultures of Haemophilus influenzae were made from oropharynx swabs from 987 children under 6 years of age who were enrolled in 29 day-care centers in Taubaté (a city of São Paulo state, Brazil) between July and December 1998.RESULTS: The prevalence of H. influenzae carriers was 17.4%, and only 5.5% of the strains were beta-lactamase producers. The prevalence of Hib carriers was high, 7.3% on average (range, 0.0 - 33.3%).CONCLUSIONS: The low prevalence of colonization by penicillin-resistant strains indicates that it is not necessary to substitute ampicilin or amoxicilin to effectively treat otitis and sinusitis caused by H. influenzae in Taubaté.', 'Occurrence of Haemophilus influenzae strains in three Brazilian states since the introduction of a conjugate Haemophilus influenzae type b vaccine Occurrence of Haemophilus influenzae strains in three Brazilian states since the introduction of a conjugate Haemophilus influenzae type b vaccine Occurrence of Haemophilus influenzae strains in three Brazilian states since the introduction of a conjugate Haemophilus influenzae type b vaccine Few vaccines in history have induced such a dramatic decline in incidence over such a short period of time as the Haemophilus influenzae type b (Hib) conjugate. This vaccine was introduced in 1988 in the United States, but only in 1999 was Hib immunization introduced by the Brazilian Ministry of Health as part of the routine infant National Immunization Program. The authors analyzed 229 H. influenzae (Hi) isolates from Public Health Laboratories in three Brazilian states: Pernambuco (Northeast, N = 54), Santa Catarina (South, N = 19), and Rio de Janeiro (Southeast, N = 156). The isolates were collected from Brazilian children 0-10 years of age with meningitis and other infections from 1990 to 2003 and were part of the research collection of the National Institute of Quality Control in Health, FIOCRUZ. Bacterial strains were characterized by serotyping and biotyping. During the pre-vaccination period the prevalence infection due to Hib was of 165 isolates and only 2 non-b Hi among all the notified meningitis infections caused by Hi. Our results showed a significant decrease in the prevalence of Hib meningitis from 165 to 33 isolates after 1999. However, during the post-vaccination period of 2001-2003 we observed an increase in the number of non-b Hi isolates: only 2 non-b strains isolated from 1990 to 1999 and 29 from 1999 to 2003. Based on the present data, the authors emphasize the need for more sensitive epidemiological and bacteriological studies aiming the improvement of the available Hib vaccine, in order to protect the susceptible population to infections due to other serological types of Hi and the reevaluation of immunization schedules used by the National Immunization Program.', 'Haemophilus influenzae meningitis 5 years after introduction of the Haemophilus influenzae type b conjugate vaccine in Brazil Haemophilus influenzae meningitis 5 years after introduction of the Haemophilus influenzae type b conjugate vaccine in Brazil Haemophilus influenzae meningitis 5 years after introduction of the Haemophilus influenzae type b conjugate vaccine in Brazil The long-term impact of Haemophilus influenzae type b (Hib) conjugate vaccine, introduced throughout Latin America in the late 1990s, has not been evaluated. Active surveillance for H. influenzae meningitis was performed from August 9, 1996 to August 8, 2004 in Metropolitan Salvador, Brazil. Five years after the introduction of Hib conjugate vaccine, Hib meningitis incidence decreased from 2.39 to 0.06 cases per 100,000 population (98%) overall, and from 60.9 to 3.1 cases per 100,000 population (95%) in children &lt;1 year of age. A transient serotype replacement phenomenon was observed associated with a small increase of meningitis due to two H. influenzae type a clonal groups. These findings indicate that Hib immunization campaign has led to the virtual elimination of Hib disease in this region.']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nutrition  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haemophilus influenzae Vaccine </t>
   </si>
 </sst>
 </file>
@@ -788,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D0F8CA-B94A-A345-81A3-3A7D1E10AE45}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38:G39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1396,6 +1420,40 @@
         <v>139</v>
       </c>
     </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>191</v>
+      </c>
+      <c r="B36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>452</v>
+      </c>
+      <c r="B37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E35" xr:uid="{12D0F8CA-B94A-A345-81A3-3A7D1E10AE45}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D35">
